--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H2">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I2">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J2">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>6015.721128876726</v>
+        <v>6.40842446732</v>
       </c>
       <c r="R2">
-        <v>6015.721128876726</v>
+        <v>57.67582020588</v>
       </c>
       <c r="S2">
-        <v>0.3046206985059421</v>
+        <v>0.0002699220594483893</v>
       </c>
       <c r="T2">
-        <v>0.3046206985059421</v>
+        <v>0.0002699220594483893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H3">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I3">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J3">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>3795.981859564521</v>
+        <v>4.018157000296</v>
       </c>
       <c r="R3">
-        <v>3795.981859564521</v>
+        <v>36.163413002664</v>
       </c>
       <c r="S3">
-        <v>0.1922187915303753</v>
+        <v>0.0001692442843381805</v>
       </c>
       <c r="T3">
-        <v>0.1922187915303753</v>
+        <v>0.0001692442843381805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H4">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I4">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J4">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>8790.57606767176</v>
+        <v>11.196094111888</v>
       </c>
       <c r="R4">
-        <v>8790.57606767176</v>
+        <v>100.764847006992</v>
       </c>
       <c r="S4">
-        <v>0.4451322401149593</v>
+        <v>0.0004715781228084949</v>
       </c>
       <c r="T4">
-        <v>0.4451322401149593</v>
+        <v>0.0004715781228084949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H5">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I5">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J5">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N5">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q5">
-        <v>723.4497472025909</v>
+        <v>0.870703435704</v>
       </c>
       <c r="R5">
-        <v>723.4497472025909</v>
+        <v>7.836330921336001</v>
       </c>
       <c r="S5">
-        <v>0.0366336408562792</v>
+        <v>3.6673922854598E-05</v>
       </c>
       <c r="T5">
-        <v>0.0366336408562792</v>
+        <v>3.6673922854598E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H6">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J6">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N6">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q6">
-        <v>131.5178983146324</v>
+        <v>6579.31184641147</v>
       </c>
       <c r="R6">
-        <v>131.5178983146324</v>
+        <v>59213.80661770323</v>
       </c>
       <c r="S6">
-        <v>0.006659729264763556</v>
+        <v>0.2771198150797977</v>
       </c>
       <c r="T6">
-        <v>0.006659729264763556</v>
+        <v>0.2771198150797976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H7">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J7">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N7">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P7">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q7">
-        <v>82.98914552636774</v>
+        <v>4125.305383187963</v>
       </c>
       <c r="R7">
-        <v>82.98914552636774</v>
+        <v>37127.74844869167</v>
       </c>
       <c r="S7">
-        <v>0.00420235761217439</v>
+        <v>0.1737573611988427</v>
       </c>
       <c r="T7">
-        <v>0.00420235761217439</v>
+        <v>0.1737573611988426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H8">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J8">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N8">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q8">
-        <v>192.1827931560002</v>
+        <v>11494.64973793911</v>
       </c>
       <c r="R8">
-        <v>192.1827931560002</v>
+        <v>103451.847641452</v>
       </c>
       <c r="S8">
-        <v>0.009731644043635225</v>
+        <v>0.4841532494803585</v>
       </c>
       <c r="T8">
-        <v>0.009731644043635225</v>
+        <v>0.4841532494803586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>191.4773253333333</v>
+      </c>
+      <c r="H9">
+        <v>574.431976</v>
+      </c>
+      <c r="I9">
+        <v>0.9726822973418036</v>
+      </c>
+      <c r="J9">
+        <v>0.9726822973418037</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.668551</v>
+      </c>
+      <c r="N9">
+        <v>14.005653</v>
+      </c>
+      <c r="O9">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P9">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q9">
+        <v>893.9216586622586</v>
+      </c>
+      <c r="R9">
+        <v>8045.294927960328</v>
+      </c>
+      <c r="S9">
+        <v>0.03765187158280481</v>
+      </c>
+      <c r="T9">
+        <v>0.03765187158280481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.204976</v>
+      </c>
+      <c r="I10">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J10">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N10">
+        <v>103.082365</v>
+      </c>
+      <c r="O10">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P10">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q10">
+        <v>13.80130842758222</v>
+      </c>
+      <c r="R10">
+        <v>124.21177584824</v>
+      </c>
+      <c r="S10">
+        <v>0.000581309433052164</v>
+      </c>
+      <c r="T10">
+        <v>0.0005813094330521639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.204976</v>
+      </c>
+      <c r="I11">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J11">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N11">
+        <v>64.633847</v>
+      </c>
+      <c r="O11">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P11">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q11">
+        <v>8.653581602519113</v>
+      </c>
+      <c r="R11">
+        <v>77.88223442267201</v>
+      </c>
+      <c r="S11">
+        <v>0.00036448780502417</v>
+      </c>
+      <c r="T11">
+        <v>0.0003644878050241699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.204976</v>
+      </c>
+      <c r="I12">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J12">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N12">
+        <v>180.094166</v>
+      </c>
+      <c r="O12">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P12">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q12">
+        <v>24.11212753000178</v>
+      </c>
+      <c r="R12">
+        <v>217.009147770016</v>
+      </c>
+      <c r="S12">
+        <v>0.001015599880090666</v>
+      </c>
+      <c r="T12">
+        <v>0.001015599880090666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.204976</v>
+      </c>
+      <c r="I13">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J13">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.668551</v>
+      </c>
+      <c r="N13">
+        <v>14.005653</v>
+      </c>
+      <c r="O13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q13">
+        <v>1.875163969925333</v>
+      </c>
+      <c r="R13">
+        <v>16.876475729328</v>
+      </c>
+      <c r="S13">
+        <v>7.898167843699881E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.898167843699881E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H14">
+        <v>14.368387</v>
+      </c>
+      <c r="I14">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J14">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N14">
+        <v>103.082365</v>
+      </c>
+      <c r="O14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q14">
+        <v>164.5697014661395</v>
+      </c>
+      <c r="R14">
+        <v>1481.127313195255</v>
+      </c>
+      <c r="S14">
+        <v>0.006931655817911797</v>
+      </c>
+      <c r="T14">
+        <v>0.006931655817911796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.920488582894</v>
-      </c>
-      <c r="H9">
-        <v>3.920488582894</v>
-      </c>
-      <c r="I9">
-        <v>0.02139462899244415</v>
-      </c>
-      <c r="J9">
-        <v>0.02139462899244415</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="N9">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="O9">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="P9">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="Q9">
-        <v>15.8163233052166</v>
-      </c>
-      <c r="R9">
-        <v>15.8163233052166</v>
-      </c>
-      <c r="S9">
-        <v>0.0008008980718709809</v>
-      </c>
-      <c r="T9">
-        <v>0.0008008980718709809</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H15">
+        <v>14.368387</v>
+      </c>
+      <c r="I15">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J15">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N15">
+        <v>64.633847</v>
+      </c>
+      <c r="O15">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P15">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q15">
+        <v>103.1871252216432</v>
+      </c>
+      <c r="R15">
+        <v>928.6841269947892</v>
+      </c>
+      <c r="S15">
+        <v>0.004346229169184962</v>
+      </c>
+      <c r="T15">
+        <v>0.004346229169184961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H16">
+        <v>14.368387</v>
+      </c>
+      <c r="I16">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J16">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N16">
+        <v>180.094166</v>
+      </c>
+      <c r="O16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q16">
+        <v>287.5180748366936</v>
+      </c>
+      <c r="R16">
+        <v>2587.662673530243</v>
+      </c>
+      <c r="S16">
+        <v>0.01211022635662145</v>
+      </c>
+      <c r="T16">
+        <v>0.01211022635662145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H17">
+        <v>14.368387</v>
+      </c>
+      <c r="I17">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J17">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.668551</v>
+      </c>
+      <c r="N17">
+        <v>14.005653</v>
+      </c>
+      <c r="O17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q17">
+        <v>22.35984916574567</v>
+      </c>
+      <c r="R17">
+        <v>201.238642491711</v>
+      </c>
+      <c r="S17">
+        <v>0.0009417941284244283</v>
+      </c>
+      <c r="T17">
+        <v>0.0009417941284244285</v>
       </c>
     </row>
   </sheetData>
